--- a/excel_test/src/com/ford/exl/TestData.xlsx
+++ b/excel_test/src/com/ford/exl/TestData.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saravi17\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saravi17\git\excel\excel_test\src\com\ford\exl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Sample</t>
   </si>
   <si>
     <t>abc</t>
+  </si>
+  <si>
+    <t>new entry</t>
   </si>
 </sst>
 </file>
@@ -348,7 +352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -365,4 +369,24 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel_test/src/com/ford/exl/TestData.xlsx
+++ b/excel_test/src/com/ford/exl/TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Sample</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>new entry</t>
+  </si>
+  <si>
+    <t>Branch 2</t>
   </si>
 </sst>
 </file>
@@ -373,10 +376,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3"/>
+  <dimension ref="A3:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -386,6 +389,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
